--- a/resources/analysis/clustering/K-Means Clustering - Pages.xlsx
+++ b/resources/analysis/clustering/K-Means Clustering - Pages.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mzatt\Projects\Git - v4j NEW\resources\analysis\clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684820A2-9999-4E5B-AB58-A5A6D0175756}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274322CE-BCA5-4307-977F-5449DCFB0649}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" firstSheet="1" activeTab="2" xr2:uid="{B8D118B6-E751-489E-A7DF-D59189414149}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" activeTab="2" xr2:uid="{B8D118B6-E751-489E-A7DF-D59189414149}"/>
   </bookViews>
   <sheets>
     <sheet name="K-Means Clustering - ALL" sheetId="1" r:id="rId1"/>
     <sheet name="Page Stats &amp; Clusters" sheetId="2" r:id="rId2"/>
     <sheet name="Pivot by Illustration" sheetId="5" r:id="rId3"/>
-    <sheet name="Pivot by parchment" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Page Stats &amp; Clusters'!$A$1:$L$228</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="63" r:id="rId5"/>
+    <pivotCache cacheId="107" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="293">
   <si>
     <t>Using transcription     : MZ</t>
   </si>
@@ -922,21 +921,6 @@
   </si>
   <si>
     <t>Count of ID</t>
-  </si>
-  <si>
-    <t>HB + S + Z</t>
-  </si>
-  <si>
-    <t>12 HA</t>
-  </si>
-  <si>
-    <t>69 HA</t>
-  </si>
-  <si>
-    <t>P + 12 HA</t>
-  </si>
-  <si>
-    <t>HA</t>
   </si>
 </sst>
 </file>
@@ -960,7 +944,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -982,36 +966,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1053,220 +1007,11 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4608,7 +4353,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{116D72FC-E776-4AB1-AF55-B0DB5E33BDBE}" name="PivotTable2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{116D72FC-E776-4AB1-AF55-B0DB5E33BDBE}" name="PivotTable2" cacheId="107" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
@@ -4739,297 +4484,6 @@
     </i>
     <i>
       <x v="6"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of ID" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0819C78-92D0-4456-91D5-19F47B793643}" name="PivotTable2" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:BA6" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="18">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
-      <items count="52">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="2">
-    <field x="4"/>
-    <field x="6"/>
-  </colFields>
-  <colItems count="52">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
-    </i>
-    <i r="1">
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="28"/>
-    </i>
-    <i r="1">
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="35"/>
-    </i>
-    <i r="1">
-      <x v="36"/>
-    </i>
-    <i r="1">
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x v="40"/>
-    </i>
-    <i r="1">
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x v="42"/>
-    </i>
-    <i r="1">
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="16"/>
-      <x v="44"/>
-    </i>
-    <i r="1">
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x v="46"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="49"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="51"/>
     </i>
   </colItems>
   <dataFields count="1">
@@ -16503,742 +15957,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5FE721-A970-4779-B301-149A57E06FD9}">
-  <sheetPr>
-    <tabColor theme="9" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A3:BX13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.28515625" customWidth="1"/>
-    <col min="42" max="42" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="3" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="3" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="53" width="3" bestFit="1" customWidth="1"/>
-    <col min="55" max="76" width="9.140625" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>255</v>
-      </c>
-      <c r="F4" t="s">
-        <v>257</v>
-      </c>
-      <c r="J4" t="s">
-        <v>258</v>
-      </c>
-      <c r="N4" t="s">
-        <v>259</v>
-      </c>
-      <c r="R4" t="s">
-        <v>260</v>
-      </c>
-      <c r="V4" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>262</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>256</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>264</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>265</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>266</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>267</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>280</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>282</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:76" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5">
-        <v>9</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <v>11</v>
-      </c>
-      <c r="M5">
-        <v>12</v>
-      </c>
-      <c r="N5">
-        <v>13</v>
-      </c>
-      <c r="O5">
-        <v>14</v>
-      </c>
-      <c r="P5">
-        <v>15</v>
-      </c>
-      <c r="Q5">
-        <v>16</v>
-      </c>
-      <c r="R5">
-        <v>17</v>
-      </c>
-      <c r="S5">
-        <v>18</v>
-      </c>
-      <c r="T5">
-        <v>19</v>
-      </c>
-      <c r="U5">
-        <v>20</v>
-      </c>
-      <c r="V5">
-        <v>21</v>
-      </c>
-      <c r="W5">
-        <v>22</v>
-      </c>
-      <c r="X5">
-        <v>23</v>
-      </c>
-      <c r="Y5">
-        <v>24</v>
-      </c>
-      <c r="Z5">
-        <v>25</v>
-      </c>
-      <c r="AA5">
-        <v>26</v>
-      </c>
-      <c r="AB5">
-        <v>27</v>
-      </c>
-      <c r="AC5">
-        <v>28</v>
-      </c>
-      <c r="AD5">
-        <v>29</v>
-      </c>
-      <c r="AE5">
-        <v>30</v>
-      </c>
-      <c r="AF5">
-        <v>31</v>
-      </c>
-      <c r="AG5">
-        <v>32</v>
-      </c>
-      <c r="AH5">
-        <v>33</v>
-      </c>
-      <c r="AI5">
-        <v>34</v>
-      </c>
-      <c r="AJ5">
-        <v>35</v>
-      </c>
-      <c r="AK5">
-        <v>36</v>
-      </c>
-      <c r="AL5">
-        <v>37</v>
-      </c>
-      <c r="AM5">
-        <v>38</v>
-      </c>
-      <c r="AN5">
-        <v>39</v>
-      </c>
-      <c r="AO5">
-        <v>40</v>
-      </c>
-      <c r="AP5">
-        <v>41</v>
-      </c>
-      <c r="AQ5">
-        <v>42</v>
-      </c>
-      <c r="AR5">
-        <v>43</v>
-      </c>
-      <c r="AS5">
-        <v>44</v>
-      </c>
-      <c r="AT5">
-        <v>45</v>
-      </c>
-      <c r="AU5">
-        <v>46</v>
-      </c>
-      <c r="AV5">
-        <v>47</v>
-      </c>
-      <c r="AW5">
-        <v>48</v>
-      </c>
-      <c r="AX5">
-        <v>49</v>
-      </c>
-      <c r="AY5">
-        <v>50</v>
-      </c>
-      <c r="AZ5">
-        <v>51</v>
-      </c>
-      <c r="BA5">
-        <v>52</v>
-      </c>
-      <c r="BB5"/>
-      <c r="BC5" s="14"/>
-      <c r="BD5" s="14"/>
-      <c r="BE5" s="14"/>
-      <c r="BF5" s="14"/>
-      <c r="BG5" s="14"/>
-      <c r="BH5" s="14"/>
-      <c r="BI5" s="14"/>
-      <c r="BJ5" s="14"/>
-      <c r="BK5" s="14"/>
-      <c r="BL5" s="14"/>
-      <c r="BM5" s="14"/>
-      <c r="BN5" s="14"/>
-      <c r="BO5" s="14"/>
-      <c r="BP5" s="14"/>
-      <c r="BQ5" s="14"/>
-      <c r="BR5" s="14"/>
-      <c r="BS5" s="14"/>
-      <c r="BT5" s="14"/>
-      <c r="BU5" s="14"/>
-      <c r="BV5" s="14"/>
-      <c r="BW5" s="14"/>
-      <c r="BX5" s="14"/>
-    </row>
-    <row r="6" spans="1:76" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B6" s="10">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10">
-        <v>4</v>
-      </c>
-      <c r="D6" s="10">
-        <v>4</v>
-      </c>
-      <c r="E6" s="10">
-        <v>4</v>
-      </c>
-      <c r="F6" s="10">
-        <v>4</v>
-      </c>
-      <c r="G6" s="10">
-        <v>4</v>
-      </c>
-      <c r="H6" s="10">
-        <v>4</v>
-      </c>
-      <c r="I6" s="10">
-        <v>2</v>
-      </c>
-      <c r="J6" s="10">
-        <v>4</v>
-      </c>
-      <c r="K6" s="10">
-        <v>4</v>
-      </c>
-      <c r="L6" s="10">
-        <v>4</v>
-      </c>
-      <c r="M6" s="10">
-        <v>4</v>
-      </c>
-      <c r="N6" s="10">
-        <v>4</v>
-      </c>
-      <c r="O6" s="10">
-        <v>4</v>
-      </c>
-      <c r="P6" s="10">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>4</v>
-      </c>
-      <c r="R6" s="10">
-        <v>4</v>
-      </c>
-      <c r="S6" s="10">
-        <v>4</v>
-      </c>
-      <c r="T6" s="10">
-        <v>4</v>
-      </c>
-      <c r="U6" s="10">
-        <v>4</v>
-      </c>
-      <c r="V6" s="10">
-        <v>4</v>
-      </c>
-      <c r="W6" s="10">
-        <v>4</v>
-      </c>
-      <c r="X6" s="10">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="10">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="10">
-        <v>4</v>
-      </c>
-      <c r="AA6" s="10">
-        <v>4</v>
-      </c>
-      <c r="AB6" s="10">
-        <v>4</v>
-      </c>
-      <c r="AC6" s="10">
-        <v>4</v>
-      </c>
-      <c r="AD6" s="10">
-        <v>4</v>
-      </c>
-      <c r="AE6" s="10">
-        <v>4</v>
-      </c>
-      <c r="AF6" s="10">
-        <v>10</v>
-      </c>
-      <c r="AG6" s="10">
-        <v>6</v>
-      </c>
-      <c r="AH6" s="10">
-        <v>8</v>
-      </c>
-      <c r="AI6" s="10">
-        <v>2</v>
-      </c>
-      <c r="AJ6" s="10">
-        <v>4</v>
-      </c>
-      <c r="AK6" s="10">
-        <v>4</v>
-      </c>
-      <c r="AL6" s="10">
-        <v>4</v>
-      </c>
-      <c r="AM6" s="10">
-        <v>4</v>
-      </c>
-      <c r="AN6" s="10">
-        <v>4</v>
-      </c>
-      <c r="AO6" s="10">
-        <v>7</v>
-      </c>
-      <c r="AP6" s="10">
-        <v>6</v>
-      </c>
-      <c r="AQ6" s="10">
-        <v>6</v>
-      </c>
-      <c r="AR6" s="10">
-        <v>4</v>
-      </c>
-      <c r="AS6" s="10">
-        <v>6</v>
-      </c>
-      <c r="AT6" s="10">
-        <v>6</v>
-      </c>
-      <c r="AU6" s="10">
-        <v>4</v>
-      </c>
-      <c r="AV6" s="10">
-        <v>4</v>
-      </c>
-      <c r="AW6" s="10">
-        <v>4</v>
-      </c>
-      <c r="AX6" s="10">
-        <v>4</v>
-      </c>
-      <c r="AY6" s="10">
-        <v>4</v>
-      </c>
-      <c r="AZ6" s="10">
-        <v>4</v>
-      </c>
-      <c r="BA6" s="10">
-        <v>4</v>
-      </c>
-      <c r="BB6" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="BC6" s="14"/>
-      <c r="BD6" s="14"/>
-      <c r="BE6" s="14"/>
-      <c r="BF6" s="14"/>
-      <c r="BG6" s="14"/>
-      <c r="BH6" s="14"/>
-      <c r="BI6" s="14"/>
-      <c r="BJ6" s="14"/>
-      <c r="BK6" s="14"/>
-      <c r="BL6" s="14"/>
-      <c r="BM6" s="14"/>
-      <c r="BN6" s="14"/>
-      <c r="BO6" s="14"/>
-      <c r="BP6" s="14"/>
-      <c r="BQ6" s="14"/>
-      <c r="BR6" s="14"/>
-      <c r="BS6" s="14"/>
-      <c r="BT6" s="14"/>
-      <c r="BU6" s="14"/>
-      <c r="BV6" s="14"/>
-      <c r="BW6" s="14"/>
-      <c r="BX6" s="14"/>
-    </row>
-    <row r="7" spans="1:76" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-      <c r="AF7"/>
-      <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
-      <c r="AK7"/>
-      <c r="AL7"/>
-      <c r="AM7"/>
-      <c r="AN7"/>
-      <c r="AO7"/>
-      <c r="AP7"/>
-      <c r="AQ7"/>
-      <c r="AR7"/>
-      <c r="AS7"/>
-      <c r="AT7"/>
-      <c r="AU7"/>
-      <c r="AV7"/>
-      <c r="AW7"/>
-      <c r="AX7"/>
-      <c r="AY7"/>
-      <c r="AZ7"/>
-      <c r="BA7"/>
-      <c r="BB7" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="BC7" s="14"/>
-      <c r="BD7" s="14"/>
-      <c r="BE7" s="14"/>
-      <c r="BF7" s="14"/>
-      <c r="BG7" s="14"/>
-      <c r="BH7" s="14"/>
-      <c r="BI7" s="14"/>
-      <c r="BJ7" s="14"/>
-      <c r="BK7" s="14"/>
-      <c r="BL7" s="14"/>
-      <c r="BM7" s="14"/>
-      <c r="BN7" s="14"/>
-      <c r="BO7" s="14"/>
-      <c r="BP7" s="14"/>
-      <c r="BQ7" s="14"/>
-      <c r="BR7" s="14"/>
-      <c r="BS7" s="14"/>
-      <c r="BT7" s="14"/>
-      <c r="BU7" s="14"/>
-      <c r="BV7" s="14"/>
-      <c r="BW7" s="14"/>
-      <c r="BX7" s="14"/>
-    </row>
-    <row r="8" spans="1:76" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8"/>
-      <c r="AG8"/>
-      <c r="AH8"/>
-      <c r="AI8"/>
-      <c r="AJ8"/>
-      <c r="AK8"/>
-      <c r="AL8"/>
-      <c r="AM8"/>
-      <c r="AN8"/>
-      <c r="AO8"/>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
-      <c r="AX8"/>
-      <c r="AY8"/>
-      <c r="AZ8"/>
-      <c r="BA8"/>
-      <c r="BB8" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="BC8" s="14"/>
-      <c r="BD8" s="14"/>
-      <c r="BE8" s="14"/>
-      <c r="BF8" s="14"/>
-      <c r="BG8" s="14"/>
-      <c r="BH8" s="14"/>
-      <c r="BI8" s="14"/>
-      <c r="BJ8" s="14"/>
-      <c r="BK8" s="14"/>
-      <c r="BL8" s="14"/>
-      <c r="BM8" s="14"/>
-      <c r="BN8" s="14"/>
-      <c r="BO8" s="14"/>
-      <c r="BP8" s="14"/>
-      <c r="BQ8" s="14"/>
-      <c r="BR8" s="14"/>
-      <c r="BS8" s="14"/>
-      <c r="BT8" s="14"/>
-      <c r="BU8" s="14"/>
-      <c r="BV8" s="14"/>
-      <c r="BW8" s="14"/>
-      <c r="BX8" s="14"/>
-    </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="BB9" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:76" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-      <c r="AF11"/>
-      <c r="AG11"/>
-      <c r="AH11"/>
-      <c r="AI11"/>
-      <c r="AJ11"/>
-      <c r="AK11"/>
-      <c r="AL11"/>
-      <c r="AM11"/>
-      <c r="AN11"/>
-      <c r="AO11"/>
-      <c r="AP11"/>
-      <c r="AQ11"/>
-      <c r="AR11"/>
-      <c r="AS11"/>
-      <c r="AT11"/>
-      <c r="AU11"/>
-      <c r="AV11"/>
-      <c r="AW11"/>
-      <c r="AX11"/>
-      <c r="AY11"/>
-      <c r="AZ11"/>
-      <c r="BA11"/>
-      <c r="BB11"/>
-      <c r="BC11" s="14"/>
-      <c r="BD11" s="14"/>
-      <c r="BE11" s="14"/>
-      <c r="BF11" s="14"/>
-      <c r="BG11" s="14"/>
-      <c r="BH11" s="14"/>
-      <c r="BI11" s="14"/>
-      <c r="BJ11" s="14"/>
-      <c r="BK11" s="14"/>
-      <c r="BL11" s="14"/>
-      <c r="BM11" s="14"/>
-      <c r="BN11" s="14"/>
-      <c r="BO11" s="14"/>
-      <c r="BP11" s="14"/>
-      <c r="BQ11" s="14"/>
-      <c r="BR11" s="14"/>
-      <c r="BS11" s="14"/>
-      <c r="BT11" s="14"/>
-      <c r="BU11" s="14"/>
-      <c r="BV11" s="14"/>
-      <c r="BW11" s="14"/>
-      <c r="BX11" s="14"/>
-    </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="BB12" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="BC12" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="BC13" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>